--- a/VerveStacks_BRA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BRA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE45278-A0E5-458B-872F-7297D2024673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5DBF30-513B-401F-83D7-66CB26F3CBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -751,19 +751,19 @@
                   <c:v>807.62759999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1035.42</c:v>
+                  <c:v>980.19759999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1297.7263999999998</c:v>
+                  <c:v>1125.1563999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1580.7411999999999</c:v>
+                  <c:v>1380.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1863.7560000000001</c:v>
+                  <c:v>1635.9636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2105.3539999999998</c:v>
+                  <c:v>1981.1035999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1039,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220.73</c:v>
+                  <c:v>61.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>286.86</c:v>
+                  <c:v>98.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360.55</c:v>
+                  <c:v>128.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>471.06</c:v>
+                  <c:v>172.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>581.75</c:v>
+                  <c:v>209.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,7 +5642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5675,7 +5677,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$A$7:$C$999,3,FALSE)</f>
-        <v>C1</v>
+        <v>C3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
@@ -5699,9 +5701,8 @@
       <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" t="str">
-        <f>C7</f>
-        <v>C1</v>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5717,9 +5718,8 @@
       <c r="B9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C61" si="0">C8</f>
-        <v>C1</v>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5735,9 +5735,8 @@
       <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -5757,9 +5756,8 @@
       <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5773,8 +5771,8 @@
         <v>109</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>C1</v>
+        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <v>C7</v>
       </c>
       <c r="R12" s="8">
         <f>Q10</f>
@@ -5786,23 +5784,23 @@
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>1035.42</v>
+        <v>980.19759999999997</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="1"/>
-        <v>1297.7263999999998</v>
+        <v>1125.1563999999998</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="1"/>
-        <v>1580.7411999999999</v>
+        <v>1380.56</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="1"/>
-        <v>1863.7560000000001</v>
+        <v>1635.9636</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="1"/>
-        <v>2105.3539999999998</v>
+        <v>1981.1035999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
@@ -5814,7 +5812,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -5829,23 +5827,23 @@
       </c>
       <c r="I13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="J13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="K13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="L13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="M13" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E13)</f>
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5857,7 +5855,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>13</v>
@@ -5872,7 +5870,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="G15" s="7">
         <v>2020</v>
@@ -5938,7 +5936,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -5949,27 +5947,27 @@
       </c>
       <c r="H16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!H$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M16" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E16)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>17</v>
@@ -5980,27 +5978,27 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>8.076276</v>
+        <v>0</v>
       </c>
       <c r="T16" s="6">
         <f t="shared" si="3"/>
-        <v>10.354200000000001</v>
+        <v>0</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="3"/>
-        <v>25.954527999999996</v>
+        <v>0</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>63.229647999999997</v>
+        <v>13.8056</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="3"/>
-        <v>111.82536</v>
+        <v>16.359636000000002</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="3"/>
-        <v>147.37477999999999</v>
+        <v>59.433107999999997</v>
       </c>
       <c r="Y16" t="s">
         <v>18</v>
@@ -6016,7 +6014,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>C1</v>
+        <v>C7</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -6031,23 +6029,23 @@
       </c>
       <c r="I17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="J17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="K17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="L17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="M17" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E17)</f>
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>20</v>
@@ -6062,23 +6060,23 @@
       </c>
       <c r="T17" s="6">
         <f t="shared" si="3"/>
-        <v>476.29320000000007</v>
+        <v>421.48496799999998</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="3"/>
-        <v>596.95414399999993</v>
+        <v>506.32037999999994</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>727.14095199999997</v>
+        <v>593.64080000000001</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="3"/>
-        <v>894.60288000000003</v>
+        <v>736.18362000000002</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="3"/>
-        <v>1031.6234599999998</v>
+        <v>851.874548</v>
       </c>
       <c r="Y17" t="s">
         <v>18</v>
@@ -6108,23 +6106,23 @@
       </c>
       <c r="I18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="J18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="K18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="M18" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E18)</f>
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>23</v>
@@ -6139,23 +6137,23 @@
       </c>
       <c r="T18" s="6">
         <f t="shared" si="3"/>
-        <v>538.41840000000002</v>
+        <v>519.504728</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>648.86319999999989</v>
+        <v>573.82976399999995</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>727.14095199999997</v>
+        <v>690.28</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="3"/>
-        <v>820.05264</v>
+        <v>768.90289199999995</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="3"/>
-        <v>905.30221999999992</v>
+        <v>950.92972799999995</v>
       </c>
       <c r="Y18" t="s">
         <v>18</v>
@@ -6190,19 +6188,19 @@
       </c>
       <c r="J19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M19" s="11">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E19)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>25</v>
@@ -6267,23 +6265,23 @@
       </c>
       <c r="T20" s="6">
         <f t="shared" si="6"/>
-        <v>13.805600000000027</v>
+        <v>32.305104000000028</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="6"/>
-        <v>45.006255999999894</v>
+        <v>38.103455999999824</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="6"/>
-        <v>119.55649599999992</v>
+        <v>89.736400000000003</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="6"/>
-        <v>142.19767999999999</v>
+        <v>123.97428800000012</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="6"/>
-        <v>161.52551999999991</v>
+        <v>171.396524</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6328,23 +6326,23 @@
       </c>
       <c r="I22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!I$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>220.73</v>
+        <v>61.35</v>
       </c>
       <c r="J22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!J$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>286.86</v>
+        <v>98.16</v>
       </c>
       <c r="K22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!K$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>360.55</v>
+        <v>128.76</v>
       </c>
       <c r="L22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!L$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>471.06</v>
+        <v>172.36</v>
       </c>
       <c r="M22" s="8">
         <f>SUMIFS(ar6_r10!$F$2:$F$999,ar6_r10!$A$2:$A$999,Veda!$C$5,ar6_r10!$C$2:$C$999,Veda!M$15,ar6_r10!$M$2:$M$999,Veda!$E22)</f>
-        <v>581.75</v>
+        <v>209.45</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -6354,23 +6352,23 @@
       </c>
       <c r="T22" s="11">
         <f>I22/1000</f>
-        <v>0.22072999999999998</v>
+        <v>6.1350000000000002E-2</v>
       </c>
       <c r="U22" s="11">
         <f>J22/1000</f>
-        <v>0.28686</v>
+        <v>9.8159999999999997E-2</v>
       </c>
       <c r="V22" s="11">
         <f>K22/1000</f>
-        <v>0.36055000000000004</v>
+        <v>0.12875999999999999</v>
       </c>
       <c r="W22" s="11">
         <f>L22/1000</f>
-        <v>0.47105999999999998</v>
+        <v>0.17236000000000001</v>
       </c>
       <c r="X22" s="11">
         <f>M22/1000</f>
-        <v>0.58174999999999999</v>
+        <v>0.20945</v>
       </c>
       <c r="Y22" t="s">
         <v>30</v>
@@ -22537,7 +22535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ACD839-B60C-4CDA-B632-BF39C559A5EF}">
   <dimension ref="B10:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_BRA/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_BRA/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5DBF30-513B-401F-83D7-66CB26F3CBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08F94EB-A837-4C59-80AA-EE8DD5085E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="118">
   <si>
     <t>~Inputcell: 1-5</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Bioenergy</t>
   </si>
   <si>
-    <t>fuel_supply</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>ts_12</t>
+  </si>
+  <si>
+    <t>pset_co</t>
   </si>
   <si>
     <t>BRA</t>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -5699,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -5716,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -5733,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -5754,7 +5754,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -5768,10 +5768,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C9:C61" si="0">C11</f>
+        <f t="shared" ref="C12:C61" si="0">C11</f>
         <v>C7</v>
       </c>
       <c r="R12" s="8">
@@ -5808,7 +5808,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -5851,7 +5851,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -5866,7 +5866,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -5932,7 +5932,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -6010,7 +6010,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -6830,7 +6830,7 @@
         <v>C4</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
@@ -6849,7 +6849,7 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="G42">
         <v>2022</v>
@@ -6879,10 +6879,10 @@
         <v>2050</v>
       </c>
       <c r="P42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q42" t="s">
         <v>84</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
@@ -6900,8 +6900,9 @@
       <c r="E43" t="s">
         <v>79</v>
       </c>
-      <c r="F43" t="s">
-        <v>83</v>
+      <c r="F43" t="str">
+        <f>E43</f>
+        <v>Gas</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43:M46" si="9">AVERAGE($P43:$Q43)*G35</f>
@@ -6955,8 +6956,9 @@
       <c r="E44" t="s">
         <v>80</v>
       </c>
-      <c r="F44" t="s">
-        <v>83</v>
+      <c r="F44" t="str">
+        <f t="shared" ref="F44:F46" si="10">E44</f>
+        <v>Coal</v>
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
@@ -7010,8 +7012,9 @@
       <c r="E45" t="s">
         <v>81</v>
       </c>
-      <c r="F45" t="s">
-        <v>83</v>
+      <c r="F45" t="str">
+        <f t="shared" si="10"/>
+        <v>Oil</v>
       </c>
       <c r="G45">
         <f t="shared" si="9"/>
@@ -7065,8 +7068,9 @@
       <c r="E46" t="s">
         <v>82</v>
       </c>
-      <c r="F46" t="s">
-        <v>83</v>
+      <c r="F46" t="str">
+        <f t="shared" si="10"/>
+        <v>Bioenergy</v>
       </c>
       <c r="G46">
         <f t="shared" si="9"/>
@@ -22558,12 +22562,12 @@
         <v>0.75</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C18" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -22575,49 +22579,49 @@
     </row>
     <row r="22" spans="3:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="I22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="K22" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
       </c>
       <c r="E23" t="str">
         <f>G23</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
         <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
       </c>
       <c r="H23" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
@@ -22634,22 +22638,22 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" t="str">
         <f>G24</f>
         <v>AuxStoIN</v>
       </c>
       <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
         <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
       </c>
       <c r="H24" t="e">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
@@ -22660,7 +22664,7 @@
         <v>-0.75</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
